--- a/tests/test_3.xlsx
+++ b/tests/test_3.xlsx
@@ -87717,7 +87717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87738,40 +87738,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>props</t>
+          <t>young</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>poisson</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>poisson</t>
+          <t>mass</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mass</t>
+          <t>shear</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>shear</t>
+          <t>damping</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>damping</t>
+          <t>alpha</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>alpha</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
@@ -87783,27 +87778,30 @@
           <t>4000Psi</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>isotropic</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24855578.0600518</v>
+      </c>
       <c r="D2" t="n">
-        <v>24855578.0600518</v>
+        <v>0.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2</v>
+        <v>2.40276960558926</v>
       </c>
       <c r="F2" t="n">
-        <v>2.40276960558926</v>
+        <v>10356490.8583549</v>
       </c>
       <c r="G2" t="n">
-        <v>10356490.8583549</v>
+        <v>0.02</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02</v>
+        <v>9.89999952793124e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>9.89999952793124e-06</v>
-      </c>
-      <c r="J2" t="n">
         <v>23.5631216161854</v>
       </c>
     </row>
@@ -87813,23 +87811,26 @@
           <t>A615Gr60</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>isotropic</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>199947978.795958</v>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
         <v>7.84904737995992</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0.02</v>
+      </c>
       <c r="H3" t="n">
-        <v>0.02</v>
+        <v>1.16999994421006e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>1.16999994421006e-05</v>
-      </c>
-      <c r="J3" t="n">
         <v>76.97286394226479</v>
       </c>
     </row>
@@ -87839,27 +87840,30 @@
           <t>A992Fy50</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>isotropic</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>199947978.795958</v>
+      </c>
       <c r="D4" t="n">
-        <v>199947978.795958</v>
+        <v>0.3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>7.84904737995992</v>
       </c>
       <c r="F4" t="n">
-        <v>7.84904737995992</v>
+        <v>76903068.7676762</v>
       </c>
       <c r="G4" t="n">
-        <v>76903068.7676762</v>
+        <v>0.02</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02</v>
+        <v>1.16999994421006e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>1.16999994421006e-05</v>
-      </c>
-      <c r="J4" t="n">
         <v>76.97286394226479</v>
       </c>
     </row>
@@ -87869,27 +87873,30 @@
           <t>C30/37</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>isotropic</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33000000</v>
+      </c>
       <c r="D5" t="n">
-        <v>33000000</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>2.5485377</v>
       </c>
       <c r="F5" t="n">
-        <v>2.5485377</v>
+        <v>13750000</v>
       </c>
       <c r="G5" t="n">
-        <v>13750000</v>
+        <v>0.02</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02</v>
+        <v>1e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="J5" t="n">
         <v>24.99261766</v>
       </c>
     </row>
@@ -87899,27 +87906,30 @@
           <t>S355</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>isotropic</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>210000000</v>
+      </c>
       <c r="D6" t="n">
-        <v>210000000</v>
+        <v>0.3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>7.84904737995992</v>
       </c>
       <c r="F6" t="n">
-        <v>7.84904737995992</v>
+        <v>80769230.7692308</v>
       </c>
       <c r="G6" t="n">
-        <v>80769230.7692308</v>
+        <v>0.02</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02</v>
+        <v>1.17e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>1.17e-05</v>
-      </c>
-      <c r="J6" t="n">
         <v>76.97286394226479</v>
       </c>
     </row>

--- a/tests/test_3.xlsx
+++ b/tests/test_3.xlsx
@@ -11,7 +11,14 @@
     <sheet name="elements" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="sections" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="elementsections" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="materials" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="supports" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="materials" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="pointloads" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="lineloads" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="arealoads" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="solidloads" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="loadcases" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="loadcombinations" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25488,6 +25495,139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loadcase</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>fx</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>fy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fz</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>mx</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>my</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mz</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>loadcase</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>combination</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -92903,6 +93043,1362 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>point</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ux</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>uy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>uz</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rx</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ry</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rz</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1159</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1161</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1163</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1164</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1171</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1172</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1173</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1175</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1176</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1177</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1178</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1179</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1180</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1181</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1182</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1183</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1184</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1185</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1186</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1190</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1191</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1192</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1193</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1194</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1195</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1197</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1198</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1199</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1205</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -93122,4 +94618,172 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>point</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loadcase</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>fx</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>fy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fz</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>mx</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>my</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mz</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loadcase</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>fx</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>fy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fz</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loadcase</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>fx</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>fy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fz</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>mx</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>my</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mz</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>